--- a/ValueSet-vs-normal-abnormal.xlsx
+++ b/ValueSet-vs-normal-abnormal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet containing codes that indicate the normality, absence, or unknown status of a clinical finding or condition.</t>
+    <t>ValueSet containing codes that indicate the normality status of a clinical finding or condition. It includes codes from system Snomed CT where concept descendant-of $SCT#276800000 (Normality findings (qualifier value)).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -99,16 +99,91 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>descendent-of</t>
-  </si>
-  <si>
-    <t>276800000</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>263654008</t>
+  </si>
+  <si>
+    <t>Abnormal (qualifier value)</t>
+  </si>
+  <si>
+    <t>43261007</t>
+  </si>
+  <si>
+    <t>Abnormal presence of (qualifier value)</t>
+  </si>
+  <si>
+    <t>371879000</t>
+  </si>
+  <si>
+    <t>Abnormally high (qualifier value)</t>
+  </si>
+  <si>
+    <t>371880002</t>
+  </si>
+  <si>
+    <t>Abnormally low (qualifier value)</t>
+  </si>
+  <si>
+    <t>260377000</t>
+  </si>
+  <si>
+    <t>Exaggerated (qualifier value)</t>
+  </si>
+  <si>
+    <t>1340204007</t>
+  </si>
+  <si>
+    <t>Slightly abnormal (qualifier value)</t>
+  </si>
+  <si>
+    <t>371932001</t>
+  </si>
+  <si>
+    <t>Borderline normal (qualifier value)</t>
+  </si>
+  <si>
+    <t>17621005</t>
+  </si>
+  <si>
+    <t>Normal (qualifier value)</t>
+  </si>
+  <si>
+    <t>371934000</t>
+  </si>
+  <si>
+    <t>Normality undetermined (qualifier value)</t>
+  </si>
+  <si>
+    <t>264909001</t>
+  </si>
+  <si>
+    <t>Post-receptor abnormality (qualifier value)</t>
+  </si>
+  <si>
+    <t>394845008</t>
+  </si>
+  <si>
+    <t>Potentially abnormal (qualifier value)</t>
+  </si>
+  <si>
+    <t>264914002</t>
+  </si>
+  <si>
+    <t>Receptor abnormality (qualifier value)</t>
+  </si>
+  <si>
+    <t>264916000</t>
+  </si>
+  <si>
+    <t>Receptor defective (qualifier value)</t>
+  </si>
+  <si>
+    <t>40885006</t>
+  </si>
+  <si>
+    <t>Variant (qualifier value)</t>
   </si>
   <si>
     <t/>
@@ -384,7 +459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,13 +471,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -412,13 +484,10 @@
       <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>31</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>32</v>
@@ -430,6 +499,110 @@
       </c>
       <c r="B4" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
